--- a/C15H/Table 3_raw.xlsx
+++ b/C15H/Table 3_raw.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="195">
   <si>
     <t>table31</t>
   </si>
@@ -496,6 +496,111 @@
   </si>
   <si>
     <t>**7.338 ± 28.520</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.842</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.871</t>
+  </si>
+  <si>
+    <t>0.440</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>9.713 ± 3.624</t>
+  </si>
+  <si>
+    <t>17.090 ± 3.243</t>
+  </si>
+  <si>
+    <t>14.355 ± 3.400</t>
+  </si>
+  <si>
+    <t>6.522 ± 3.482</t>
+  </si>
+  <si>
+    <t>492.029 ± 6.066</t>
+  </si>
+  <si>
+    <t>278.277 ± 5.705</t>
+  </si>
+  <si>
+    <t>5.745 ± 37.695</t>
+  </si>
+  <si>
+    <t>14.220 ± 32.980</t>
+  </si>
+  <si>
+    <t>28.878 ± 28.484</t>
+  </si>
+  <si>
+    <t>2.116 ± 4.358</t>
+  </si>
+  <si>
+    <t>3.321 ± 3.080</t>
+  </si>
+  <si>
+    <t>2.673 ± 3.499</t>
+  </si>
+  <si>
+    <t>2.013 ± 32.833</t>
+  </si>
+  <si>
+    <t>2.873 ± 28.268</t>
+  </si>
+  <si>
+    <t>**4.555 ± 17.989</t>
+  </si>
+  <si>
+    <t>3.347 ± 3.624</t>
+  </si>
+  <si>
+    <t>4.169 ± 3.243</t>
+  </si>
+  <si>
+    <t>3.150 ± 3.400</t>
+  </si>
+  <si>
+    <t>2.033 ± 41.439</t>
+  </si>
+  <si>
+    <t>2.199 ± 39.086</t>
+  </si>
+  <si>
+    <t>2.344 ± 37.306</t>
+  </si>
+  <si>
+    <t>71.516 ± 3.482</t>
+  </si>
+  <si>
+    <t>54.419 ± 6.066</t>
+  </si>
+  <si>
+    <t>37.571 ± 5.705</t>
+  </si>
+  <si>
+    <t>6.928 ± 37.695</t>
+  </si>
+  <si>
+    <t>5.916 ± 32.980</t>
+  </si>
+  <si>
+    <t>8.228 ± 28.484</t>
+  </si>
+  <si>
+    <t>4.742 ± 35.668</t>
+  </si>
+  <si>
+    <t>4.607 ± 31.905</t>
   </si>
 </sst>
 </file>
@@ -516,7 +621,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -539,11 +644,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -554,6 +665,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,383 +994,383 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>142</v>
+      <c r="F2" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>143</v>
+      <c r="F3" s="14" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>144</v>
+      <c r="F4" s="14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>145</v>
+      <c r="F5" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>146</v>
+      <c r="F6" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>147</v>
+      <c r="F7" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>148</v>
+      <c r="F8" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>149</v>
+      <c r="E9" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>150</v>
+      <c r="E10" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>151</v>
+      <c r="F11" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>152</v>
+      <c r="F12" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>153</v>
+      <c r="F13" s="14" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>154</v>
+      <c r="F14" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>155</v>
+      <c r="E15" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>156</v>
+      <c r="E16" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>157</v>
+      <c r="F17" s="14" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>158</v>
+      <c r="F18" s="14" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>159</v>
+      <c r="E19" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
